--- a/modelo_turmas.xlsx
+++ b/modelo_turmas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">NOME_DA_TURMA</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">NOME_DO_CURSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAPA</t>
   </si>
   <si>
     <t xml:space="preserve">STATUS</t>
@@ -132,10 +135,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -143,6 +146,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -158,14 +162,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>